--- a/source/js/controllers/genclassurl.xlsx
+++ b/source/js/controllers/genclassurl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t>adult.jpg</t>
   </si>
@@ -89,43 +89,109 @@
     <t>zumba.jpg</t>
   </si>
   <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>adult blackbelt</t>
-  </si>
-  <si>
-    <t>children special</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>blackbelt children</t>
-  </si>
-  <si>
-    <t>adult cateogry-special</t>
-  </si>
-  <si>
-    <t>adult special</t>
-  </si>
-  <si>
-    <t>special adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ,{category:'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , classurl: '</t>
-  </si>
-  <si>
     <t>'}</t>
   </si>
   <si>
-    <t xml:space="preserve">         {category:'</t>
+    <t>' , classurl: '</t>
+  </si>
+  <si>
+    <t>Blackbelt Adult</t>
+  </si>
+  <si>
+    <t>After School</t>
+  </si>
+  <si>
+    <t>Basic Dragon</t>
+  </si>
+  <si>
+    <t>BBT1 - Purple - B/G</t>
+  </si>
+  <si>
+    <t>BBT1 Leopard</t>
+  </si>
+  <si>
+    <t>BBT2 - Green</t>
+  </si>
+  <si>
+    <t>BBT3 - Brown</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Injured</t>
+  </si>
+  <si>
+    <t>Blackbelt Jr</t>
+  </si>
+  <si>
+    <t>Kickboxing</t>
+  </si>
+  <si>
+    <t>Basic Leopard</t>
+  </si>
+  <si>
+    <t>BBT - Multiclasses</t>
+  </si>
+  <si>
+    <t>Privates Adult</t>
+  </si>
+  <si>
+    <t>Privates Children</t>
+  </si>
+  <si>
+    <t>Saturday Only</t>
+  </si>
+  <si>
+    <t>Self Defense</t>
+  </si>
+  <si>
+    <t>Special Needs</t>
+  </si>
+  <si>
+    <t>TaiChi</t>
+  </si>
+  <si>
+    <t>Zoomba</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>',class: '</t>
+  </si>
+  <si>
+    <t>cat-adult</t>
+  </si>
+  <si>
+    <t>cat-adult cateogry-special</t>
+  </si>
+  <si>
+    <t>cat-adult special</t>
+  </si>
+  <si>
+    <t>special cat-adult</t>
+  </si>
+  <si>
+    <t>cat-children special</t>
+  </si>
+  <si>
+    <t>cat-children</t>
+  </si>
+  <si>
+    <t>cat-special</t>
+  </si>
+  <si>
+    <t>cat-adult cat-blackbelt</t>
+  </si>
+  <si>
+    <t>cat-blackbelt cat-children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         {classcat:'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ,{classcat:'</t>
   </si>
 </sst>
 </file>
@@ -444,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,451 +522,582 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="str">
-        <f>A1&amp;B1&amp;C1&amp;D1&amp;E1</f>
-        <v xml:space="preserve">         {category:'adult , classurl: 'adult.jpg'}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="str">
+        <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1</f>
+        <v xml:space="preserve">         {classcat:'cat-adult' , classurl: 'adult.jpg',class: 'Adult'}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F21" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2</f>
-        <v xml:space="preserve">         ,{category:'adult blackbelt , classurl: 'adultblackbelt.jpg'}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H21" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
+        <v xml:space="preserve">         ,{classcat:'cat-adult cat-blackbelt' , classurl: 'adultblackbelt.jpg',class: 'Blackbelt Adult'}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children special , classurl: 'afterschool.jpg'}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children special' , classurl: 'afterschool.jpg',class: 'After School'}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'basicdragon.jpg'}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'basicdragon.jpg',class: 'Basic Dragon'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'bbt1purple.jpg'}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'bbt1purple.jpg',class: 'BBT1 - Purple - B/G'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'bbt1leopard.jpg'}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'bbt1leopard.jpg',class: 'BBT1 Leopard'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'bbt2.jpg'}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'bbt2.jpg',class: 'BBT2 - Green'}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'bbt3.jpg'}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'bbt3.jpg',class: 'BBT3 - Brown'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special , classurl: 'inactive.jpg'}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-special' , classurl: 'inactive.jpg',class: 'Inactive'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special , classurl: 'injured.jpg'}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-special' , classurl: 'injured.jpg',class: 'Injured'}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'blackbelt children , classurl: 'jrblackbelt.jpg'}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-blackbelt cat-children' , classurl: 'jrblackbelt.jpg',class: 'Blackbelt Jr'}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'adult cateogry-special , classurl: 'kickbox.jpg'}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-adult cateogry-special' , classurl: 'kickbox.jpg',class: 'Kickboxing'}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'leopards.jpg'}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'leopards.jpg',class: 'Basic Leopard'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children , classurl: 'multiclass.jpg'}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children' , classurl: 'multiclass.jpg',class: 'BBT - Multiclasses'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'adult special , classurl: 'private.jpg'}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-adult special' , classurl: 'private.jpg',class: 'Privates Adult'}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'children special , classurl: 'privatechild.jpg'}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-children special' , classurl: 'privatechild.jpg',class: 'Privates Children'}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special , classurl: 'saturday.png'}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-special' , classurl: 'saturday.png',class: 'Saturday Only'}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special adult , classurl: 'selfdefence.jpg'}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'special cat-adult' , classurl: 'selfdefence.jpg',class: 'Self Defense'}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special , classurl: 'specialneeds.jpg'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-special' , classurl: 'specialneeds.jpg',class: 'Special Needs'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'adult special , classurl: 'taichi.jpg'}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-adult special' , classurl: 'taichi.jpg',class: 'TaiChi'}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         ,{category:'special , classurl: 'zumba.jpg'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         ,{classcat:'cat-special' , classurl: 'zumba.jpg',class: 'Zoomba'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/js/controllers/genclassurl.xlsx
+++ b/source/js/controllers/genclassurl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="68">
   <si>
     <t>adult.jpg</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>' , agecat: '</t>
+  </si>
+  <si>
+    <t>',classid: '</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +559,10 @@
     <col min="3" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" customWidth="1"/>
+    <col min="9" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -585,20 +588,26 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1)</f>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-adult' , classurl: 'adult.jpg',class: 'Adult'},</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1)</f>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-adult' , classurl: 'adult.jpg',classid: '1',class: 'Adult'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -624,20 +633,26 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L21" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
-        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children' , programcat: 'pgm-other' , classurl: 'afterschool.jpg',class: 'After School'},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N21" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2)</f>
+        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children' , programcat: 'pgm-other' , classurl: 'afterschool.jpg',classid: '2',class: 'After School'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -663,20 +678,26 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-basic pgm-dragon' , classurl: 'basicdragon.jpg',class: 'Basic Dragon'},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-basic pgm-dragon' , classurl: 'basicdragon.jpg',classid: '3',class: 'Basic Dragon'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -702,20 +723,26 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt1' , classurl: 'bbt1purple.jpg',class: 'BBT1 - Purple - B/G'},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt1' , classurl: 'bbt1purple.jpg',classid: '4',class: 'BBT1 - Purple - B/G'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -741,20 +768,26 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="str">
-        <f>CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5)</f>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-basic pgm-leopard' , classurl: 'leopards.jpg',class: 'Basic Leopard'},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-basic pgm-leopard' , classurl: 'leopards.jpg',classid: '5',class: 'Basic Leopard'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -780,20 +813,26 @@
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-leopard pgm-bbt1' , classurl: 'bbt1leopard.jpg',class: 'BBT1 Leopard'},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-leopard pgm-bbt1' , classurl: 'bbt1leopard.jpg',classid: '6',class: 'BBT1 Leopard'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -819,20 +858,26 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt2' , classurl: 'bbt2.jpg',class: 'BBT2 - Green'},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt2' , classurl: 'bbt2.jpg',classid: '7',class: 'BBT2 - Green'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -858,20 +903,26 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt3' , classurl: 'bbt3.jpg',class: 'BBT3 - Brown'},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt3' , classurl: 'bbt3.jpg',classid: '8',class: 'BBT3 - Brown'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -897,20 +948,26 @@
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'inactive.jpg',class: 'Inactive'},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'inactive.jpg',classid: '9',class: 'Inactive'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -936,20 +993,26 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'injured.jpg',class: 'Injured'},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'injured.jpg',classid: '10',class: 'Injured'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -975,20 +1038,26 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="str">
-        <f>CONCATENATE(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11)</f>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-black' , classurl: 'adultblackbelt.jpg',class: 'Blackbelt Adult'},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-black' , classurl: 'adultblackbelt.jpg',classid: '11',class: 'Blackbelt Adult'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1014,20 +1083,26 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-black' , classurl: 'jrblackbelt.jpg',class: 'Blackbelt Jr'},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-black' , classurl: 'jrblackbelt.jpg',classid: '12',class: 'Blackbelt Jr'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1053,20 +1128,26 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-fitness' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'kickbox.jpg',class: 'Kickboxing'},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-fitness' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'kickbox.jpg',classid: '13',class: 'Kickboxing'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1092,20 +1173,26 @@
         <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt' , classurl: 'multiclass.jpg',class: 'BBT - Multiclasses'},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-bbt' , classurl: 'multiclass.jpg',classid: '14',class: 'BBT - Multiclasses'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1131,20 +1218,26 @@
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-privates' , classurl: 'private.jpg',class: 'Privates Adult'},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-adult' , programcat: 'pgm-privates' , classurl: 'private.jpg',classid: '15',class: 'Privates Adult'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1170,20 +1263,26 @@
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-privates' , classurl: 'privatechild.jpg',class: 'Privates Children'},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children' , programcat: 'pgm-privates' , classurl: 'privatechild.jpg',classid: '16',class: 'Privates Children'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1209,20 +1308,26 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'saturday.png',class: 'Saturday Only'},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-karate' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'saturday.png',classid: '17',class: 'Saturday Only'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1248,20 +1353,26 @@
         <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-adult' , programcat: 'pgm-other' , classurl: 'selfdefence.jpg',class: 'Self Defense'},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-adult' , programcat: 'pgm-other' , classurl: 'selfdefence.jpg',classid: '18',class: 'Self Defense'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1287,20 +1398,26 @@
         <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children' , programcat: 'pgm-other' , classurl: 'specialneeds.jpg',class: 'Special Needs'},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-special' , agecat: 'age-children' , programcat: 'pgm-other' , classurl: 'specialneeds.jpg',classid: '19',class: 'Special Needs'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1326,20 +1443,26 @@
         <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-wellness' , agecat: 'age-adult' , programcat: 'pgm-other' , classurl: 'taichi.jpg',class: 'TaiChi'},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-wellness' , agecat: 'age-adult' , programcat: 'pgm-other' , classurl: 'taichi.jpg',classid: '20',class: 'TaiChi'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1365,26 +1488,32 @@
         <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">         {classcat:'cat-fitness' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'zumba.jpg',class: 'Zoomba'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">         {classcat:'cat-fitness' , agecat: 'age-children age-adult' , programcat: 'pgm-other' , classurl: 'zumba.jpg',classid: '21',class: 'Zoomba'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
